--- a/public/downloads/Template Files/Job Sales Summary Report Result.xlsx
+++ b/public/downloads/Template Files/Job Sales Summary Report Result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Meteor\spreadsheet_template\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CB031D-2D4D-49C6-8CDF-37E450C0E4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Job Sales Summary" sheetId="1" r:id="rId1"/>
@@ -29,15 +28,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{FDAAF59D-431D-49C0-A40D-C1D2F893BEE3}" keepAlive="1" name="Query - TJobSalesSummary?IgnoreDates=false&amp;DateFrom=%222023-01-02%22&amp;DateTo=%222023-02-0" description="Connection to the 'TJobSalesSummary?IgnoreDates=false&amp;DateFrom=%222023-01-02%22&amp;DateTo=%222023-02-0' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - TJobSalesSummary?IgnoreDates=false&amp;DateFrom=%222023-01-02%22&amp;DateTo=%222023-02-0" description="Connection to the 'TJobSalesSummary?IgnoreDates=false&amp;DateFrom=%222023-01-02%22&amp;DateTo=%222023-02-0' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TJobSalesSummary?IgnoreDates=false&amp;DateFrom=%222023-01-02%22&amp;DateTo=%222023-02-0&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TJobSalesSummary?IgnoreDates=false&amp;DateFrom=%222023-01-02%22&amp;DateTo=%222023-02-0]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>T.DetailType</t>
   </si>
@@ -171,9 +170,6 @@
     <t>Job Name</t>
   </si>
   <si>
-    <t>Product ID</t>
-  </si>
-  <si>
     <t>Qty Shipped</t>
   </si>
   <si>
@@ -183,17 +179,26 @@
     <t>Tax</t>
   </si>
   <si>
-    <t>Amount Ex</t>
-  </si>
-  <si>
-    <t>Amount Inc</t>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Amount (ex)</t>
+  </si>
+  <si>
+    <t>Amount (inc)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -234,10 +246,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -255,7 +273,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -269,7 +286,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -283,7 +299,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -297,7 +312,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -311,7 +325,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -325,7 +338,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -339,7 +351,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -353,7 +364,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -367,7 +377,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -381,7 +390,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -395,7 +403,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -409,7 +416,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -423,7 +429,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -437,7 +442,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -451,7 +455,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -469,7 +472,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2092D30B-6BB8-4DC9-8928-8BC5DD391A58}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="T.DetailType" tableColumnId="14"/>
@@ -491,22 +494,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EF8EBE4-6F80-41BF-BC97-C81D1C89EF2F}" name="TJobSalesSummary_IgnoreDates_false_DateFrom__222023_01_02_22_DateTo__222023_02_0" displayName="TJobSalesSummary_IgnoreDates_false_DateFrom__222023_01_02_22_DateTo__222023_02_0" ref="A1:M18" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M18" xr:uid="{8EF8EBE4-6F80-41BF-BC97-C81D1C89EF2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TJobSalesSummary_IgnoreDates_false_DateFrom__222023_01_02_22_DateTo__222023_02_0" displayName="TJobSalesSummary_IgnoreDates_false_DateFrom__222023_01_02_22_DateTo__222023_02_0" ref="A1:M18" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M18"/>
+  <sortState ref="A2:M18">
+    <sortCondition ref="E1:E18"/>
+  </sortState>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{15B57579-B9CC-4DA8-9320-2C4027B45749}" uniqueName="14" name="T.DetailType" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{29FB1E2B-746A-4D6C-84B1-0FE69EF16C32}" uniqueName="2" name="T.ParentClientID" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2112B733-25C0-4B4F-AE73-5F7D6540EECE}" uniqueName="3" name="T.Customer" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{1E1057AF-A7EE-441C-9D19-F1E5A29551A8}" uniqueName="4" name="T.ClientID" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E1C12E6C-431B-4453-A602-6EDC76771CA8}" uniqueName="5" name="T.JobCustomer" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D4E8CDDD-39FC-4DED-8DDC-15BBC2CB68E5}" uniqueName="6" name="T.CustomerJobNumber" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{1F2C91B6-A880-42A7-8956-CAA52F0D6638}" uniqueName="7" name="T.JobName" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{92225D45-C712-442F-AEB6-0C5372A20065}" uniqueName="8" name="T.ProductName" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{0284704A-A09F-4910-924E-F88FD352F32E}" uniqueName="9" name="T.QtyShipped" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{EBD67383-E297-4162-8CF6-8B5478E120C5}" uniqueName="10" name="T.TotalDiscount" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{4E84A07D-EEAC-413F-9086-8104C0FED127}" uniqueName="11" name="T.TotalAmountEx" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{2BF50000-FE7C-4CFF-89F3-2CDDC0C0A8C5}" uniqueName="12" name="T.TotalAmountInc" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{F76B3B82-F292-4DE6-9BA5-7D43B6284BD5}" uniqueName="13" name="T.TotalTax" queryTableFieldId="13" dataDxfId="0"/>
+    <tableColumn id="14" uniqueName="14" name="T.DetailType" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="T.ParentClientID" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" uniqueName="3" name="T.Customer" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" uniqueName="4" name="T.ClientID" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" uniqueName="5" name="T.JobCustomer" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="T.CustomerJobNumber" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" uniqueName="7" name="T.JobName" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="8" uniqueName="8" name="T.ProductName" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" uniqueName="9" name="T.QtyShipped" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" uniqueName="10" name="T.TotalDiscount" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" uniqueName="11" name="T.TotalAmountEx" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="12" uniqueName="12" name="T.TotalAmountInc" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="13" uniqueName="13" name="T.TotalTax" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -774,29 +780,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -810,16 +816,16 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>48</v>
@@ -828,239 +834,735 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str">
+        <f>'Raw Data'!$C$2</f>
+        <v/>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>'Raw Data'!$E$2</f>
+        <v/>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>'Raw Data'!$F$2</f>
+        <v/>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>'Raw Data'!$G$2</f>
+        <v/>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>'Raw Data'!$H$2</f>
+        <v/>
+      </c>
+      <c r="F2" s="3">
+        <f>'Raw Data'!$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'Raw Data'!$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Raw Data'!$M$2</f>
         <v>1491.39</v>
       </c>
-      <c r="B2" s="2">
+      <c r="I2" s="4">
+        <f>'Raw Data'!$K$2</f>
         <v>11114.72</v>
       </c>
-      <c r="C2" s="2">
+      <c r="J2" s="4">
+        <f>'Raw Data'!$L$2</f>
         <v>12606.11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f>'Raw Data'!$C$3</f>
+        <v/>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>'Raw Data'!$E$3</f>
+        <v>Bruno's Lead</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>'Raw Data'!$F$3</f>
+        <v/>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>'Raw Data'!$G$3</f>
+        <v/>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>'Raw Data'!$H$3</f>
+        <v>10 Unit</v>
+      </c>
+      <c r="F3" s="3">
+        <f>'Raw Data'!$I$3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <f>'Raw Data'!$J$3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Raw Data'!$M$3</f>
+        <v>0.91</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Raw Data'!$K$3</f>
+        <v>9.09</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Raw Data'!$L$3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <f>'Raw Data'!$C$4</f>
+        <v/>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>'Raw Data'!$E$4</f>
+        <v>Bruno's Lead</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>'Raw Data'!$F$4</f>
+        <v/>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>'Raw Data'!$G$4</f>
+        <v/>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>'Raw Data'!$H$4</f>
+        <v>Lot No Product</v>
+      </c>
+      <c r="F4" s="3">
+        <f>'Raw Data'!$I$4</f>
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="H3" s="2">
-        <v>9.09</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
+        <f>'Raw Data'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Raw Data'!$M$4</f>
         <v>15.46</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="4">
+        <f>'Raw Data'!$K$4</f>
         <v>154.53</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="4">
+        <f>'Raw Data'!$L$4</f>
         <v>169.99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f>'Raw Data'!$C$5</f>
+        <v/>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>'Raw Data'!$E$5</f>
+        <v>Bruno's Lead</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>'Raw Data'!$F$5</f>
+        <v/>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>'Raw Data'!$G$5</f>
+        <v/>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>'Raw Data'!$H$5</f>
+        <v>gvjj</v>
+      </c>
+      <c r="F5" s="3">
+        <f>'Raw Data'!$I$5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'Raw Data'!$J$5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Raw Data'!$M$5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Raw Data'!$K$5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Raw Data'!$L$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="str">
+        <f>'Raw Data'!$C$6</f>
+        <v/>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>'Raw Data'!$E$6</f>
+        <v>Burns</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>'Raw Data'!$F$6</f>
+        <v/>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>'Raw Data'!$G$6</f>
+        <v/>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>'Raw Data'!$H$6</f>
+        <v>Mobile Phone</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'Raw Data'!$I$6</f>
         <v>40</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
+        <f>'Raw Data'!$J$6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Raw Data'!$M$6</f>
         <v>1452</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="4">
+        <f>'Raw Data'!$K$6</f>
         <v>10120</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="4">
+        <f>'Raw Data'!$L$6</f>
         <v>11572</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f>'Raw Data'!$C$7</f>
+        <v/>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>'Raw Data'!$E$7</f>
+        <v>City Of Atlanta</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>'Raw Data'!$F$7</f>
+        <v/>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>'Raw Data'!$G$7</f>
+        <v/>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>'Raw Data'!$H$7</f>
+        <v>tessssssssssssssssssssssssssssssss</v>
+      </c>
+      <c r="F7" s="3">
+        <f>'Raw Data'!$I$7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'Raw Data'!$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'Raw Data'!$M$7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'Raw Data'!$K$7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'Raw Data'!$L$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="str">
+        <f>'Raw Data'!$C$8</f>
+        <v/>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>'Raw Data'!$E$8</f>
+        <v>DownEast</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>'Raw Data'!$F$8</f>
+        <v/>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>'Raw Data'!$G$8</f>
+        <v/>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f>'Raw Data'!$H$8</f>
+        <v>yoerghergergherh</v>
+      </c>
+      <c r="F8" s="3">
+        <f>'Raw Data'!$I$8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <f>'Raw Data'!$J$8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>'Raw Data'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>'Raw Data'!$K$8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f>'Raw Data'!$L$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <f>'Raw Data'!$C$9</f>
+        <v/>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>'Raw Data'!$E$9</f>
+        <v>GOT</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>'Raw Data'!$F$9</f>
+        <v/>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>'Raw Data'!$G$9</f>
+        <v/>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f>'Raw Data'!$H$9</f>
+        <v>testttteefefefefe</v>
+      </c>
+      <c r="F9" s="3">
+        <f>'Raw Data'!$I$9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>'Raw Data'!$J$9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>'Raw Data'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f>'Raw Data'!$K$9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f>'Raw Data'!$L$9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <f>'Raw Data'!$C$10</f>
+        <v/>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>'Raw Data'!$E$10</f>
+        <v>GOT</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>'Raw Data'!$F$10</f>
+        <v/>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>'Raw Data'!$G$10</f>
+        <v/>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>'Raw Data'!$H$10</f>
+        <v>helo buddy</v>
+      </c>
+      <c r="F10" s="3">
+        <f>'Raw Data'!$I$10</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>'Raw Data'!$J$10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>'Raw Data'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>'Raw Data'!$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f>'Raw Data'!$L$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <f>'Raw Data'!$C$11</f>
+        <v/>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>'Raw Data'!$E$11</f>
+        <v>newCustomer</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>'Raw Data'!$F$11</f>
+        <v/>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>'Raw Data'!$G$11</f>
+        <v/>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f>'Raw Data'!$H$11</f>
+        <v>just test</v>
+      </c>
+      <c r="F11" s="3">
+        <f>'Raw Data'!$I$11</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <f>'Raw Data'!$J$11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>'Raw Data'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>'Raw Data'!$K$11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>'Raw Data'!$L$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="str">
+        <f>'Raw Data'!$C$12</f>
+        <v/>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>'Raw Data'!$E$12</f>
+        <v>Sonny</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>'Raw Data'!$F$12</f>
+        <v/>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>'Raw Data'!$G$12</f>
+        <v/>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f>'Raw Data'!$H$12</f>
+        <v>yooooo</v>
+      </c>
+      <c r="F12" s="3">
+        <f>'Raw Data'!$I$12</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <f>'Raw Data'!$J$12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>'Raw Data'!$M$12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>'Raw Data'!$K$12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>'Raw Data'!$L$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <f>'Raw Data'!$C$13</f>
+        <v/>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>'Raw Data'!$E$13</f>
+        <v>TEST2</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>'Raw Data'!$F$13</f>
+        <v/>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>'Raw Data'!$G$13</f>
+        <v/>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f>'Raw Data'!$H$13</f>
+        <v>One dollar</v>
+      </c>
+      <c r="F13" s="3">
+        <f>'Raw Data'!$I$13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f>'Raw Data'!$J$13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>'Raw Data'!$M$13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f>'Raw Data'!$K$13</f>
+        <v>0.9</v>
+      </c>
+      <c r="J13" s="4">
+        <f>'Raw Data'!$L$13</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="str">
+        <f>'Raw Data'!$C$14</f>
+        <v/>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>'Raw Data'!$E$14</f>
+        <v>TEST2</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>'Raw Data'!$F$14</f>
+        <v/>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>'Raw Data'!$G$14</f>
+        <v/>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f>'Raw Data'!$H$14</f>
+        <v>test</v>
+      </c>
+      <c r="F14" s="3">
+        <f>'Raw Data'!$I$14</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <f>'Raw Data'!$J$14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>'Raw Data'!$M$14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>'Raw Data'!$K$14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>'Raw Data'!$L$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="str">
+        <f>'Raw Data'!$C$15</f>
+        <v/>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>'Raw Data'!$E$15</f>
+        <v>TEST2</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>'Raw Data'!$F$15</f>
+        <v/>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>'Raw Data'!$G$15</f>
+        <v/>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f>'Raw Data'!$H$15</f>
+        <v>100 Unit</v>
+      </c>
+      <c r="F15" s="3">
+        <f>'Raw Data'!$I$15</f>
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <f>'Raw Data'!$J$15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>'Raw Data'!$M$15</f>
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="I15" s="4">
+        <f>'Raw Data'!$K$15</f>
+        <v>830</v>
+      </c>
+      <c r="J15" s="4">
+        <f>'Raw Data'!$L$15</f>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="str">
+        <f>'Raw Data'!$C$16</f>
+        <v/>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>'Raw Data'!$E$16</f>
+        <v>Wang Song</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>'Raw Data'!$F$16</f>
+        <v/>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>'Raw Data'!$G$16</f>
+        <v/>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f>'Raw Data'!$H$16</f>
+        <v>aaa</v>
+      </c>
+      <c r="F16" s="3">
+        <f>'Raw Data'!$I$16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f>'Raw Data'!$J$16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>'Raw Data'!$M$16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>'Raw Data'!$K$16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f>'Raw Data'!$L$16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="str">
+        <f>'Raw Data'!$C$17</f>
+        <v/>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>'Raw Data'!$E$17</f>
+        <v>Wang Tan</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>'Raw Data'!$F$17</f>
+        <v/>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>'Raw Data'!$G$17</f>
+        <v/>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f>'Raw Data'!$H$17</f>
+        <v>3434</v>
+      </c>
+      <c r="F17" s="3">
+        <f>'Raw Data'!$I$17</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2">
-        <v>830</v>
-      </c>
-      <c r="I15" s="2">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3434</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="G17" s="3">
+        <f>'Raw Data'!$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>'Raw Data'!$M$17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>'Raw Data'!$K$17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>'Raw Data'!$L$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="str">
+        <f>'Raw Data'!$C$18</f>
+        <v/>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>'Raw Data'!$E$18</f>
+        <v>Wang Tan</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>'Raw Data'!$F$18</f>
+        <v/>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>'Raw Data'!$G$18</f>
+        <v/>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f>'Raw Data'!$H$18</f>
+        <v>Labour</v>
+      </c>
+      <c r="F18" s="3">
+        <f>'Raw Data'!$I$18</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
+        <f>'Raw Data'!$J$18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f>'Raw Data'!$M$18</f>
         <v>0.02</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="4">
+        <f>'Raw Data'!$K$18</f>
         <v>0.2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="4">
+        <f>'Raw Data'!$L$18</f>
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4">
+        <f>SUBTOTAL(9,H2:H18)</f>
+        <v>2982.78</v>
+      </c>
+      <c r="I19" s="4">
+        <f>SUBTOTAL(9,I2:I18)</f>
+        <v>22229.440000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <f>SUBTOTAL(9,J2:J18)</f>
+        <v>25212.22</v>
       </c>
     </row>
   </sheetData>
@@ -1069,11 +1571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3AD01-8678-4906-9ED7-10108C3F0B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1187,10 +1689,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
@@ -1199,7 +1701,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1208,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1228,10 +1730,10 @@
         <v>33</v>
       </c>
       <c r="D4" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -1240,22 +1742,22 @@
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>154.53</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>169.99</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1281,7 +1783,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1290,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1310,10 +1812,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="1">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
@@ -1322,22 +1824,22 @@
         <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>10120</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>11572</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1351,10 +1853,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
@@ -1363,10 +1865,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1392,10 +1894,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -1404,10 +1906,10 @@
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1433,10 +1935,10 @@
         <v>33</v>
       </c>
       <c r="D9" s="1">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
@@ -1445,22 +1947,22 @@
         <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>154.53</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>169.99</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>15.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1474,10 +1976,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="1">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -1486,7 +1988,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1495,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1515,10 +2017,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
@@ -1527,19 +2029,19 @@
         <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1609,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1618,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1638,10 +2140,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
@@ -1650,10 +2152,10 @@
         <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1720,10 +2222,10 @@
         <v>33</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
@@ -1732,22 +2234,22 @@
         <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>10120</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>11572</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1761,10 +2263,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="1">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -1773,10 +2275,10 @@
         <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1802,10 +2304,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
@@ -1814,22 +2316,22 @@
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
